--- a/Student Data/SecondYearStudents.xlsx
+++ b/Student Data/SecondYearStudents.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\Student Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B454F9BE-9565-4ADA-A484-0C84B1104434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73CA6E0-898D-4F45-AB32-D182200DF5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csa" sheetId="1" r:id="rId1"/>
     <sheet name="csb" sheetId="2" r:id="rId2"/>
-    <sheet name="eee" sheetId="3" r:id="rId3"/>
+    <sheet name="ec" sheetId="8" r:id="rId3"/>
+    <sheet name="ee" sheetId="3" r:id="rId4"/>
+    <sheet name="ad" sheetId="4" r:id="rId5"/>
+    <sheet name="ce" sheetId="5" r:id="rId6"/>
+    <sheet name="me" sheetId="6" r:id="rId7"/>
+    <sheet name="mr" sheetId="7" r:id="rId8"/>
+    <sheet name="ra" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="337">
   <si>
     <t>rollnum</t>
   </si>
@@ -477,6 +483,569 @@
   </si>
   <si>
     <t>VASEEM SAMAN P S</t>
+  </si>
+  <si>
+    <t>ABEL JONES</t>
+  </si>
+  <si>
+    <t>ABHISHEK AJAYKUMAR</t>
+  </si>
+  <si>
+    <t>AISWARYA AK</t>
+  </si>
+  <si>
+    <t>AISWARYA K G</t>
+  </si>
+  <si>
+    <t>ALAN C VINOY</t>
+  </si>
+  <si>
+    <t>ALAN DAVIS C</t>
+  </si>
+  <si>
+    <t>ALAXO JOY</t>
+  </si>
+  <si>
+    <t>ALEN C ALEX</t>
+  </si>
+  <si>
+    <t>ANANDHANARAYANAN A N</t>
+  </si>
+  <si>
+    <t>ANANTHU KRISHNAN</t>
+  </si>
+  <si>
+    <t>ANASWAR V S</t>
+  </si>
+  <si>
+    <t>ANNLIYA P SHAJAN</t>
+  </si>
+  <si>
+    <t>APARNNA JOSEPH</t>
+  </si>
+  <si>
+    <t>ARJUN C S</t>
+  </si>
+  <si>
+    <t>ASHIQUE T P</t>
+  </si>
+  <si>
+    <t>ASHLIN PARAKKAL</t>
+  </si>
+  <si>
+    <t>ATHIRA P S</t>
+  </si>
+  <si>
+    <t>BHAGYALAKSHMY SABURAJ</t>
+  </si>
+  <si>
+    <t>DEEPAK C R</t>
+  </si>
+  <si>
+    <t>GANGA K MANOHARAN</t>
+  </si>
+  <si>
+    <t>GOPIKA P S</t>
+  </si>
+  <si>
+    <t>GOURI K P</t>
+  </si>
+  <si>
+    <t>GOUTHAM KRISHNA M S</t>
+  </si>
+  <si>
+    <t>GOWRI PRIYA</t>
+  </si>
+  <si>
+    <t>HAMEEM ABDUL NASSIR</t>
+  </si>
+  <si>
+    <t>HRIDYA GIRISH</t>
+  </si>
+  <si>
+    <t>IVINE P SABU</t>
+  </si>
+  <si>
+    <t>JENY M JERRY</t>
+  </si>
+  <si>
+    <t>JESLIN LEELA MATHEW</t>
+  </si>
+  <si>
+    <t>JOHN DAVIS</t>
+  </si>
+  <si>
+    <t>JOMON P JOJI</t>
+  </si>
+  <si>
+    <t>JUDIN JOHNSON</t>
+  </si>
+  <si>
+    <t>MIRIAM MONCY THOMAS</t>
+  </si>
+  <si>
+    <t>MISHAL MUHAMMED EP</t>
+  </si>
+  <si>
+    <t>MOHAMMED MUSTHAFA</t>
+  </si>
+  <si>
+    <t>NANDANA ANAND</t>
+  </si>
+  <si>
+    <t>NAVEEN WILSON</t>
+  </si>
+  <si>
+    <t>NEREPARAMBIL SHARLET VARKEY</t>
+  </si>
+  <si>
+    <t>RASAL HARISH A</t>
+  </si>
+  <si>
+    <t>RESHMA K R</t>
+  </si>
+  <si>
+    <t>SACHIN RAJ M</t>
+  </si>
+  <si>
+    <t>SAKTHEESWARAN D</t>
+  </si>
+  <si>
+    <t>SHAH ZAAD HASSAN</t>
+  </si>
+  <si>
+    <t>SHANE SUNNY</t>
+  </si>
+  <si>
+    <t>SHRITHIKA SHIVADAS</t>
+  </si>
+  <si>
+    <t>SREYAS AS</t>
+  </si>
+  <si>
+    <t>S R SACHIN</t>
+  </si>
+  <si>
+    <t>SURYA NARAYANAN</t>
+  </si>
+  <si>
+    <t>THOMAS RAJU</t>
+  </si>
+  <si>
+    <t>VAISHAK M A</t>
+  </si>
+  <si>
+    <t>VINEETH K</t>
+  </si>
+  <si>
+    <t>VISESH A V</t>
+  </si>
+  <si>
+    <t>AADHARSH K M</t>
+  </si>
+  <si>
+    <t>AASAD M S</t>
+  </si>
+  <si>
+    <t>ABHINAND P S</t>
+  </si>
+  <si>
+    <t>AGNA ROY</t>
+  </si>
+  <si>
+    <t>ALPHRED VARIED T P</t>
+  </si>
+  <si>
+    <t>AMAL SANAF S</t>
+  </si>
+  <si>
+    <t>ANJANA CHANDRAN V</t>
+  </si>
+  <si>
+    <t>ANTON JOHN ISSAC</t>
+  </si>
+  <si>
+    <t>ATHIRA T P</t>
+  </si>
+  <si>
+    <t>DON PAULSON</t>
+  </si>
+  <si>
+    <t>EMILDA JOHN</t>
+  </si>
+  <si>
+    <t>GOKULKRISHNA M S</t>
+  </si>
+  <si>
+    <t>JERIN GEORGE</t>
+  </si>
+  <si>
+    <t>KRISHNA K S</t>
+  </si>
+  <si>
+    <t>MEGHA A B</t>
+  </si>
+  <si>
+    <t>MUHAMMED NIFAL 
+P A</t>
+  </si>
+  <si>
+    <t>MUHAMMED SINAN 
+P A</t>
+  </si>
+  <si>
+    <t>RUBY JOSEPH</t>
+  </si>
+  <si>
+    <t>RUBY MARIYA JOSHY</t>
+  </si>
+  <si>
+    <t>SHIBLA V S</t>
+  </si>
+  <si>
+    <t>SHIVIN JOSEPH</t>
+  </si>
+  <si>
+    <t>SREELAKSHMI K G</t>
+  </si>
+  <si>
+    <t>SREELAKSHMI P</t>
+  </si>
+  <si>
+    <t>THEJUS KRISHNA C S</t>
+  </si>
+  <si>
+    <t>VIJAYALAKSHMI S</t>
+  </si>
+  <si>
+    <t>ABHIJITH SHIBU</t>
+  </si>
+  <si>
+    <t>ABIN M M</t>
+  </si>
+  <si>
+    <t>AJAY JOSEPH P M</t>
+  </si>
+  <si>
+    <t>A KRISHNARAJ</t>
+  </si>
+  <si>
+    <t>ALAN BIJU</t>
+  </si>
+  <si>
+    <t>AMAL JOHN N S</t>
+  </si>
+  <si>
+    <t>AMARNATH K R</t>
+  </si>
+  <si>
+    <t>ANUDARSH C S</t>
+  </si>
+  <si>
+    <t>ARAVIND A</t>
+  </si>
+  <si>
+    <t>ASWIN P</t>
+  </si>
+  <si>
+    <t>ASWIN S</t>
+  </si>
+  <si>
+    <t>AUGUSTINE KALAPURAKKAL</t>
+  </si>
+  <si>
+    <t>DIVIN JUSTIN</t>
+  </si>
+  <si>
+    <t>EDWIN JAISON</t>
+  </si>
+  <si>
+    <t>EDWIN VINCENT</t>
+  </si>
+  <si>
+    <t>EMIN THOMAS C</t>
+  </si>
+  <si>
+    <t>JEFRIN JAISON</t>
+  </si>
+  <si>
+    <t>JERIL BIJU</t>
+  </si>
+  <si>
+    <t>JOMON JOY</t>
+  </si>
+  <si>
+    <t>JOYEL GEORGE</t>
+  </si>
+  <si>
+    <t>K G SUDHIN KRISHNA</t>
+  </si>
+  <si>
+    <t>LESLEE JUSTIN</t>
+  </si>
+  <si>
+    <t>NIHAL SHAHNAWAZ</t>
+  </si>
+  <si>
+    <t>NOHA ANTO K</t>
+  </si>
+  <si>
+    <t>RANJITH E B</t>
+  </si>
+  <si>
+    <t>SANGEETH P S</t>
+  </si>
+  <si>
+    <t>SHINE T S</t>
+  </si>
+  <si>
+    <t>SIDDARTH RAJESH</t>
+  </si>
+  <si>
+    <t>TISO JOSEPH JOSE</t>
+  </si>
+  <si>
+    <t>T U ATHULKRISHNA</t>
+  </si>
+  <si>
+    <t>VAISAKH JAISON</t>
+  </si>
+  <si>
+    <t>VARUN RAJ K R</t>
+  </si>
+  <si>
+    <t>VIVEK M</t>
+  </si>
+  <si>
+    <t>V S VAISHAL</t>
+  </si>
+  <si>
+    <t>ADARSH RAPHY</t>
+  </si>
+  <si>
+    <t>ALFRED C RAJAN</t>
+  </si>
+  <si>
+    <t>ALLEN JOE S ALAPAT</t>
+  </si>
+  <si>
+    <t>ALWIN VARGHESE</t>
+  </si>
+  <si>
+    <t>AMALKRISHNA</t>
+  </si>
+  <si>
+    <t>ANAND ANTONY</t>
+  </si>
+  <si>
+    <t>ANNLYN MARIA TOJY</t>
+  </si>
+  <si>
+    <t>ASWIN M R</t>
+  </si>
+  <si>
+    <t>FINU FAWAS</t>
+  </si>
+  <si>
+    <t>GRACE MARIA GEORGE</t>
+  </si>
+  <si>
+    <t>JESWIN DEVASIA</t>
+  </si>
+  <si>
+    <t>JITHIN GEORGE THOMAS</t>
+  </si>
+  <si>
+    <t>JOYAL J MALIAKAL</t>
+  </si>
+  <si>
+    <t>MELVIN ALEX</t>
+  </si>
+  <si>
+    <t>MOHAMMED ASHIK P M</t>
+  </si>
+  <si>
+    <t>MUHAMMED HIJAS</t>
+  </si>
+  <si>
+    <t>MUHAMMED RABEEH V P</t>
+  </si>
+  <si>
+    <t>RAHUL K</t>
+  </si>
+  <si>
+    <t>R DEVANAND</t>
+  </si>
+  <si>
+    <t>RESWIN GEO THOMAS</t>
+  </si>
+  <si>
+    <t>RINCE MATHEW</t>
+  </si>
+  <si>
+    <t>SAFEER MOHAMMED K</t>
+  </si>
+  <si>
+    <t>THASHFAL MIGDAD B C</t>
+  </si>
+  <si>
+    <t>THOMAS ALLAN</t>
+  </si>
+  <si>
+    <t>ABHIRAM A R</t>
+  </si>
+  <si>
+    <t>ABHIRAM K SANAL</t>
+  </si>
+  <si>
+    <t>ABINAND V NAIR</t>
+  </si>
+  <si>
+    <t>ABNA I P</t>
+  </si>
+  <si>
+    <t>AISWARIYA R</t>
+  </si>
+  <si>
+    <t>AKASH P R</t>
+  </si>
+  <si>
+    <t>ALAGA CHANDRAN</t>
+  </si>
+  <si>
+    <t>ALBERT THOMAS ABRAHAM</t>
+  </si>
+  <si>
+    <t>AMARNATH S</t>
+  </si>
+  <si>
+    <t>ANAND RAJAN</t>
+  </si>
+  <si>
+    <t>ANLI JOY</t>
+  </si>
+  <si>
+    <t>ARUNRAJ A</t>
+  </si>
+  <si>
+    <t>ASWATH CHANDRA B</t>
+  </si>
+  <si>
+    <t>ATHUL RAJESH</t>
+  </si>
+  <si>
+    <t>AUSTIN DAVEY THOMAS</t>
+  </si>
+  <si>
+    <t>DELNA JOSEPH</t>
+  </si>
+  <si>
+    <t>EDWIN ROSHAN N</t>
+  </si>
+  <si>
+    <t>GEON WILSON</t>
+  </si>
+  <si>
+    <t>HARITHA S</t>
+  </si>
+  <si>
+    <t>JEWEL ANOJ</t>
+  </si>
+  <si>
+    <t>JEWEL GABRIEL</t>
+  </si>
+  <si>
+    <t>JOE KOLATHINGAL</t>
+  </si>
+  <si>
+    <t>JUBLE M B</t>
+  </si>
+  <si>
+    <t>KRISHNAJA K</t>
+  </si>
+  <si>
+    <t>KRISHNENDHU S</t>
+  </si>
+  <si>
+    <t>NANDANA S</t>
+  </si>
+  <si>
+    <t>NAVYA N M</t>
+  </si>
+  <si>
+    <t>NOVWELL FRANCIS</t>
+  </si>
+  <si>
+    <t>PRAJITH PRASANTH</t>
+  </si>
+  <si>
+    <t>PRANAV PRASAD</t>
+  </si>
+  <si>
+    <t>REMYA P</t>
+  </si>
+  <si>
+    <t>SINTA PAULY</t>
+  </si>
+  <si>
+    <t>SNEHA SAJAN</t>
+  </si>
+  <si>
+    <t>STINOY STEEPHEN</t>
+  </si>
+  <si>
+    <t>VAISHNAV S</t>
+  </si>
+  <si>
+    <t>ADEEB BABU</t>
+  </si>
+  <si>
+    <t>ADITHYA DINESH RAO</t>
+  </si>
+  <si>
+    <t>ALAN GEORGE SHIBU</t>
+  </si>
+  <si>
+    <t>ANN MARY SHAJI</t>
+  </si>
+  <si>
+    <t>ANSAB C K</t>
+  </si>
+  <si>
+    <t>ASWIN KRISHNA C K</t>
+  </si>
+  <si>
+    <t>ASWIN VINOD</t>
+  </si>
+  <si>
+    <t>JUNI MARIYA A J</t>
+  </si>
+  <si>
+    <t>JYOTHIS K P</t>
+  </si>
+  <si>
+    <t>NITHIN B</t>
+  </si>
+  <si>
+    <t>ROLLS V R</t>
+  </si>
+  <si>
+    <t>SAFA NASRIN S A</t>
+  </si>
+  <si>
+    <t>SANDRAJ SUNIL</t>
+  </si>
+  <si>
+    <t>SEBIN IGNATIOUS K</t>
+  </si>
+  <si>
+    <t>SUDEV SUNIL</t>
+  </si>
+  <si>
+    <t>VISMAYA THANKAM JOHN</t>
+  </si>
+  <si>
+    <t>dino</t>
   </si>
 </sst>
 </file>
@@ -495,12 +1064,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -582,7 +1153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -603,6 +1174,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1606,7 +2180,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>12112086</v>
       </c>
@@ -1932,11 +2506,325 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33489B3B-F9E8-4F32-9C3F-08F3EED48284}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>12114001</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>12114002</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>12114003</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>12114004</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>12114005</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>12114006</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>12114007</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>12114008</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>12114009</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>12114010</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>12114011</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12114012</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>12114013</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>12114014</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>12114015</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>12114016</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>12114017</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12114018</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>12114019</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>12114020</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>12114021</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>12114022</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>12114023</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>12114024</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>12114025</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>12114026</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>12114027</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>12114028</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>12114029</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>12114030</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>12114031</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>12114032</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>12114033</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>12114034</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>12114035</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>12114036</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1212BC1A-6F2C-41B5-90C5-2A77E745D6D8}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,4 +3100,1381 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0892C1A-2C99-4BBA-A9E3-CC4AE72BD06C}">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>12117001</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>12117002</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>12117003</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>12117004</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>12117005</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>12117006</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>12117007</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>12117008</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>12117009</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>12117010</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>12117011</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12117012</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>12117013</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>12117014</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>12117015</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>12117016</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>12117017</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12117018</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>12117019</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>12117020</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>12117021</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>12117022</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>12117023</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>12117024</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>12117025</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>12117026</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>12117027</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>12117028</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>12117029</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>12117030</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>12117031</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>12117032</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>12117033</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>12117034</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>12117035</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>12117036</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>12117037</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>12117038</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>12117039</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>12117040</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>12117041</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>12117042</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>12117043</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>12117044</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>12117045</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>12117046</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>12117047</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>12117048</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>12117049</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>12117050</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>12117051</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>12117052</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818E9465-3DD0-47A4-A36E-17C40FD8939F}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>12111001</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>12111002</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>12111003</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>12111004</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>12111005</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>12111006</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>12111007</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>12111008</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>12111009</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>12111010</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>12111011</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12111012</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>12111013</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>12111014</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>12111015</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>12111016</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>12111017</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12111018</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>12111019</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>12111020</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>12111021</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>12111022</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>12111023</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>12111024</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>12111025</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A463346-F38F-4AA2-A193-679FD9D9E725}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>12115002</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>12115003</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>12115005</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>12115001</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>12115006</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>12115007</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>12115008</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>12115009</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>12115010</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>12115011</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>12115012</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12115013</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>12115014</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>12115015</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>12115016</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>12115017</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>12115018</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12115019</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>12115020</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>12115021</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>12115022</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>12115023</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>12115024</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>12115025</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>12115026</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>12115027</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>12115028</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>12115029</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>12115031</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>12115030</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>12115032</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>12115033</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>12115034</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>12115035</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49398C1-6118-4E40-9361-986A02CF2C26}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>12016001</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>12016003</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>12016004</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>12016005</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>12016006</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>12016007</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>12016008</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>12016009</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>12016010</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>12016011</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>12016012</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12016013</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>12016014</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>12016015</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>12016016</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>12016017</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>12016018</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>12016020</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>12016019</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>12016021</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>12016022</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>12016024</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>12016025</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>12016026</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785B95AF-6954-4E6B-9295-9C31B2D0053F}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>12118001</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>12118002</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>12118003</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>12118004</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>12118005</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>12118006</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>12118007</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>12118008</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>12118009</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>12118010</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>12118011</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12118012</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>12118013</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>12118014</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>12118015</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>12118016</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>12118017</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Student Data/SecondYearStudents.xlsx
+++ b/Student Data/SecondYearStudents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\Student Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73CA6E0-898D-4F45-AB32-D182200DF5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DC8512-0924-4049-B9FB-63A8CA5C2D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csa" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="ce" sheetId="5" r:id="rId6"/>
     <sheet name="me" sheetId="6" r:id="rId7"/>
     <sheet name="mr" sheetId="7" r:id="rId8"/>
-    <sheet name="ra" sheetId="9" r:id="rId9"/>
+    <sheet name="rb" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1104,21 +1104,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1148,36 +1133,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1462,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1481,498 +1485,498 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>12112001</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>12112002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>12112003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>12112004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>12112005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>12112006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>12112007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>12112008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>12112009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>12112010</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>12112011</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>12112012</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>12112013</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>12112014</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12112015</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>12112016</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>12112017</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>12112018</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>12112019</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>12112020</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>12112021</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>12112022</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>12112023</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>12112024</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>12112025</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>12112026</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>12112027</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>12112028</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>12112029</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>12112030</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>12112031</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>12112033</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>12112034</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>12112035</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>12112036</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>12112037</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>12112038</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>12112039</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>12112040</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>12112041</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
         <v>12112043</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
+      <c r="A43" s="5">
         <v>12112044</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="A44" s="5">
         <v>12112045</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="A45" s="5">
         <v>12112042</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>12112046</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>12112047</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>12112048</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>12112049</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="4">
         <v>12112050</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+      <c r="A51" s="4">
         <v>12112051</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+      <c r="A52" s="4">
         <v>12112052</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+      <c r="A53" s="4">
         <v>12112053</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
+      <c r="A54" s="4">
         <v>12112054</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
+      <c r="A55" s="4">
         <v>12112055</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+      <c r="A56" s="4">
         <v>12112056</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+      <c r="A57" s="4">
         <v>12112057</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+      <c r="A58" s="4">
         <v>12112058</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+      <c r="A59" s="4">
         <v>12112059</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
+      <c r="A60" s="4">
         <v>12112060</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
+      <c r="A61" s="4">
         <v>12112061</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
+      <c r="A62" s="4">
         <v>12112062</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
+      <c r="A63" s="4">
         <v>12112063</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1986,7 +1990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D233C0D7-5BB3-437E-B36E-4DA07BC37037}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -2005,498 +2009,498 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>12112064</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>12112065</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>12112066</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>12112067</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>12112068</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>12112069</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>12112070</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>12112071</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>12112072</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>12112073</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>12112075</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>12112074</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>12112077</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>12112078</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>12112079</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>12112076</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>12112080</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>12112081</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>12112082</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>12112083</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>12112084</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>12112085</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>12112086</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>12112087</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>12112088</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>12112089</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>12112090</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>12112091</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>12112092</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>12112093</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>12112094</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>12112095</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>12112096</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>12112097</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>12112098</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>12112099</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>12112100</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>12112101</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>12112102</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>12112103</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>12112104</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>12112105</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>12112106</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>12112107</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>12112108</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>12112109</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>12112110</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>12112111</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="4">
         <v>12112113</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+      <c r="A51" s="4">
         <v>12112114</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+      <c r="A52" s="4">
         <v>12112115</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+      <c r="A53" s="4">
         <v>12112116</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
+      <c r="A54" s="4">
         <v>12112117</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
+      <c r="A55" s="4">
         <v>12112118</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+      <c r="A56" s="4">
         <v>12112119</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+      <c r="A57" s="4">
         <v>12112120</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+      <c r="A58" s="4">
         <v>12112121</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+      <c r="A59" s="4">
         <v>12112122</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
+      <c r="A60" s="5">
         <v>12112125</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
+      <c r="A61" s="4">
         <v>12112124</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
+      <c r="A62" s="5">
         <v>12112126</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
+      <c r="A63" s="5">
         <v>12112123</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2509,7 +2513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33489B3B-F9E8-4F32-9C3F-08F3EED48284}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B37"/>
     </sheetView>
   </sheetViews>
@@ -2527,290 +2531,290 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>12114001</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>12114002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>12114003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>12114004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>12114005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>12114006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>12114007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>12114008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>12114009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>12114010</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>12114011</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>12114012</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>12114013</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>12114014</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12114015</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>12114016</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>12114017</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>12114018</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>12114019</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>12114020</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>12114021</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>12114022</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>12114023</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>12114024</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>12114025</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>12114026</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>12114027</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>12114028</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>12114029</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>12114030</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>12114031</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>12114032</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>12114033</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>12114034</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>12114035</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>12114036</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2823,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1212BC1A-6F2C-41B5-90C5-2A77E745D6D8}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,260 +2846,260 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>12113001</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>12113002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>12113003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>12113004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>12113005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>12113006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>12113007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>12113008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>12113009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>12113010</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>12113011</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>12113012</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>12113013</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>12113014</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12113015</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>12113016</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>12113017</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>12113018</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>12113019</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>12113020</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>12113021</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>12113022</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>12113023</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>12113024</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>12113025</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="8" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3106,7 +3110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0892C1A-2C99-4BBA-A9E3-CC4AE72BD06C}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -3124,418 +3128,418 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>12117001</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>12117002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>12117003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>12117004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>12117005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>12117006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>12117007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>12117008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>12117009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>12117010</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>12117011</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>12117012</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>12117013</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>12117014</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12117015</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>12117016</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>12117017</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>12117018</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>12117019</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>12117020</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>12117021</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>12117022</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>12117023</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>12117024</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>12117025</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>12117026</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>12117027</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>12117028</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>12117029</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>12117030</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>12117031</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>12117032</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>12117033</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>12117034</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>12117035</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>12117036</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>12117037</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>12117038</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>12117039</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>12117040</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>12117041</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>12117042</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>12117043</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>12117044</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>12117045</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>12117046</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>12117047</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>12117048</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="4">
         <v>12117049</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+      <c r="A51" s="4">
         <v>12117050</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+      <c r="A52" s="4">
         <v>12117051</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+      <c r="A53" s="4">
         <v>12117052</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3548,7 +3552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818E9465-3DD0-47A4-A36E-17C40FD8939F}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -3566,202 +3570,202 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>12111001</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>12111002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>12111003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>12111004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>12111005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>12111006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>12111007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>12111008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>12111009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>12111010</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>12111011</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>12111012</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>12111013</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>12111014</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12111015</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>12111016</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>12111017</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>12111018</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>12111019</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>12111020</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>12111021</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>12111022</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>12111023</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>12111024</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>12111025</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3774,7 +3778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A463346-F38F-4AA2-A193-679FD9D9E725}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -3792,274 +3796,274 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>12115002</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>12115003</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>12115005</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>12115001</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>12115006</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>12115007</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>12115008</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>12115009</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>12115010</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>12115011</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>12115012</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>12115013</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>12115014</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>12115015</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12115016</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>12115017</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>12115018</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>12115019</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>12115020</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>12115021</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>12115022</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>12115023</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>12115024</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>12115025</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>12115026</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>12115027</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>12115028</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>12115029</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>12115031</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>12115030</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>12115032</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>12115033</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>12115034</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>12115035</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4072,7 +4076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49398C1-6118-4E40-9361-986A02CF2C26}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
@@ -4090,226 +4094,226 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>12016001</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>12016003</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>12016004</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>12016005</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>12016006</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>12016007</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>12016008</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>12016009</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>12016010</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>12016011</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>12016012</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>12016013</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>12016014</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>12016015</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12016016</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>12016017</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>12016018</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>12016020</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>12016019</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>12016021</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>12016022</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>12016024</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>12016025</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>12016026</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="4"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
+      <c r="A28" s="4"/>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="5"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
+      <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
+      <c r="A34" s="4"/>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
+      <c r="A35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4339,138 +4343,138 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>12118001</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>12118002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>12118003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>12118004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>12118005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>12118006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>12118007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>12118008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>12118009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>12118010</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>12118011</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>12118012</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>12118013</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>12118014</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12118015</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>12118016</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>12118017</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>336</v>
       </c>
     </row>
